--- a/outputs/RESULTS MAMF1 CLO MODIFIED.xlsx
+++ b/outputs/RESULTS MAMF1 CLO MODIFIED.xlsx
@@ -19,130 +19,130 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t>[3.411-3.423]</t>
-  </si>
-  <si>
-    <t>[3.423-3.436]</t>
-  </si>
-  <si>
-    <t>[3.436-3.448]</t>
-  </si>
-  <si>
-    <t>[3.448-3.46]</t>
-  </si>
-  <si>
-    <t>[3.46-3.473]</t>
-  </si>
-  <si>
-    <t>[3.473-3.485]</t>
-  </si>
-  <si>
-    <t>[3.485-3.497]</t>
-  </si>
-  <si>
-    <t>[3.497-3.51]</t>
-  </si>
-  <si>
-    <t>[3.51-3.522]</t>
-  </si>
-  <si>
-    <t>[3.522-3.534]</t>
-  </si>
-  <si>
-    <t>[3.534-3.547]</t>
-  </si>
-  <si>
-    <t>[3.547-3.559]</t>
-  </si>
-  <si>
-    <t>[3.559-3.572]</t>
-  </si>
-  <si>
-    <t>[3.572-3.584]</t>
-  </si>
-  <si>
-    <t>[13.16-13.24]</t>
-  </si>
-  <si>
-    <t>[13.24-13.32]</t>
-  </si>
-  <si>
-    <t>[13.32-13.4]</t>
-  </si>
-  <si>
-    <t>[13.4-13.48]</t>
-  </si>
-  <si>
-    <t>[13.48-13.56]</t>
-  </si>
-  <si>
-    <t>[13.56-13.64]</t>
-  </si>
-  <si>
-    <t>[13.64-13.72]</t>
-  </si>
-  <si>
-    <t>[13.72-13.8]</t>
-  </si>
-  <si>
-    <t>[13.8-13.88]</t>
-  </si>
-  <si>
-    <t>[13.88-13.96]</t>
-  </si>
-  <si>
-    <t>[13.96-14.04]</t>
-  </si>
-  <si>
-    <t>[14.04-14.12]</t>
-  </si>
-  <si>
-    <t>[14.12-14.2]</t>
-  </si>
-  <si>
-    <t>[14.2-14.28]</t>
-  </si>
-  <si>
-    <t>[84.87-85.0]</t>
-  </si>
-  <si>
-    <t>[85.0-85.14]</t>
-  </si>
-  <si>
-    <t>[85.14-85.27]</t>
-  </si>
-  <si>
-    <t>[85.27-85.4]</t>
-  </si>
-  <si>
-    <t>[85.4-85.54]</t>
-  </si>
-  <si>
-    <t>[85.54-85.67]</t>
-  </si>
-  <si>
-    <t>[85.67-85.8]</t>
-  </si>
-  <si>
-    <t>[85.8-85.93]</t>
-  </si>
-  <si>
-    <t>[85.93-86.07]</t>
-  </si>
-  <si>
-    <t>[86.07-86.2]</t>
-  </si>
-  <si>
-    <t>[86.2-86.33]</t>
-  </si>
-  <si>
-    <t>[86.33-86.47]</t>
-  </si>
-  <si>
-    <t>[86.47-86.6]</t>
-  </si>
-  <si>
-    <t>[86.6-86.73]</t>
+    <t>[3.412-3.425]</t>
+  </si>
+  <si>
+    <t>[3.425-3.437]</t>
+  </si>
+  <si>
+    <t>[3.437-3.449]</t>
+  </si>
+  <si>
+    <t>[3.449-3.462]</t>
+  </si>
+  <si>
+    <t>[3.462-3.474]</t>
+  </si>
+  <si>
+    <t>[3.474-3.487]</t>
+  </si>
+  <si>
+    <t>[3.487-3.499]</t>
+  </si>
+  <si>
+    <t>[3.499-3.511]</t>
+  </si>
+  <si>
+    <t>[3.511-3.524]</t>
+  </si>
+  <si>
+    <t>[3.524-3.536]</t>
+  </si>
+  <si>
+    <t>[3.536-3.548]</t>
+  </si>
+  <si>
+    <t>[3.548-3.561]</t>
+  </si>
+  <si>
+    <t>[3.561-3.573]</t>
+  </si>
+  <si>
+    <t>[3.573-3.586]</t>
+  </si>
+  <si>
+    <t>[13.14-13.22]</t>
+  </si>
+  <si>
+    <t>[13.22-13.3]</t>
+  </si>
+  <si>
+    <t>[13.3-13.38]</t>
+  </si>
+  <si>
+    <t>[13.38-13.46]</t>
+  </si>
+  <si>
+    <t>[13.46-13.54]</t>
+  </si>
+  <si>
+    <t>[13.54-13.62]</t>
+  </si>
+  <si>
+    <t>[13.62-13.7]</t>
+  </si>
+  <si>
+    <t>[13.7-13.78]</t>
+  </si>
+  <si>
+    <t>[13.78-13.87]</t>
+  </si>
+  <si>
+    <t>[13.87-13.95]</t>
+  </si>
+  <si>
+    <t>[13.95-14.03]</t>
+  </si>
+  <si>
+    <t>[14.03-14.11]</t>
+  </si>
+  <si>
+    <t>[14.11-14.19]</t>
+  </si>
+  <si>
+    <t>[14.19-14.27]</t>
+  </si>
+  <si>
+    <t>[85.01-85.13]</t>
+  </si>
+  <si>
+    <t>[85.13-85.25]</t>
+  </si>
+  <si>
+    <t>[85.25-85.37]</t>
+  </si>
+  <si>
+    <t>[85.37-85.49]</t>
+  </si>
+  <si>
+    <t>[85.49-85.62]</t>
+  </si>
+  <si>
+    <t>[85.62-85.74]</t>
+  </si>
+  <si>
+    <t>[85.74-85.86]</t>
+  </si>
+  <si>
+    <t>[85.86-85.98]</t>
+  </si>
+  <si>
+    <t>[85.98-86.1]</t>
+  </si>
+  <si>
+    <t>[86.1-86.22]</t>
+  </si>
+  <si>
+    <t>[86.22-86.34]</t>
+  </si>
+  <si>
+    <t>[86.34-86.46]</t>
+  </si>
+  <si>
+    <t>[86.46-86.58]</t>
+  </si>
+  <si>
+    <t>[86.58-86.7]</t>
   </si>
 </sst>
 </file>
@@ -248,31 +248,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -290,25 +290,25 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -435,46 +435,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[3.411-3.423]</c:v>
+                  <c:v>[3.412-3.425]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[3.423-3.436]</c:v>
+                  <c:v>[3.425-3.437]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[3.436-3.448]</c:v>
+                  <c:v>[3.437-3.449]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[3.448-3.46]</c:v>
+                  <c:v>[3.449-3.462]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[3.46-3.473]</c:v>
+                  <c:v>[3.462-3.474]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[3.473-3.485]</c:v>
+                  <c:v>[3.474-3.487]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[3.485-3.497]</c:v>
+                  <c:v>[3.487-3.499]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[3.497-3.51]</c:v>
+                  <c:v>[3.499-3.511]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[3.51-3.522]</c:v>
+                  <c:v>[3.511-3.524]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[3.522-3.534]</c:v>
+                  <c:v>[3.524-3.536]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[3.534-3.547]</c:v>
+                  <c:v>[3.536-3.548]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[3.547-3.559]</c:v>
+                  <c:v>[3.548-3.561]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[3.559-3.572]</c:v>
+                  <c:v>[3.561-3.573]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[3.572-3.584]</c:v>
+                  <c:v>[3.573-3.586]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -498,31 +498,31 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -662,46 +662,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[13.16-13.24]</c:v>
+                  <c:v>[13.14-13.22]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[13.24-13.32]</c:v>
+                  <c:v>[13.22-13.3]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[13.32-13.4]</c:v>
+                  <c:v>[13.3-13.38]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[13.4-13.48]</c:v>
+                  <c:v>[13.38-13.46]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[13.48-13.56]</c:v>
+                  <c:v>[13.46-13.54]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[13.56-13.64]</c:v>
+                  <c:v>[13.54-13.62]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[13.64-13.72]</c:v>
+                  <c:v>[13.62-13.7]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[13.72-13.8]</c:v>
+                  <c:v>[13.7-13.78]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[13.8-13.88]</c:v>
+                  <c:v>[13.78-13.87]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[13.88-13.96]</c:v>
+                  <c:v>[13.87-13.95]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[13.96-14.04]</c:v>
+                  <c:v>[13.95-14.03]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[14.04-14.12]</c:v>
+                  <c:v>[14.03-14.11]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[14.12-14.2]</c:v>
+                  <c:v>[14.11-14.19]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[14.2-14.28]</c:v>
+                  <c:v>[14.19-14.27]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -713,34 +713,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -889,46 +889,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[84.87-85.0]</c:v>
+                  <c:v>[85.01-85.13]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[85.0-85.14]</c:v>
+                  <c:v>[85.13-85.25]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[85.14-85.27]</c:v>
+                  <c:v>[85.25-85.37]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[85.27-85.4]</c:v>
+                  <c:v>[85.37-85.49]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[85.4-85.54]</c:v>
+                  <c:v>[85.49-85.62]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[85.54-85.67]</c:v>
+                  <c:v>[85.62-85.74]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[85.67-85.8]</c:v>
+                  <c:v>[85.74-85.86]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[85.8-85.93]</c:v>
+                  <c:v>[85.86-85.98]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[85.93-86.07]</c:v>
+                  <c:v>[85.98-86.1]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[86.07-86.2]</c:v>
+                  <c:v>[86.1-86.22]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[86.2-86.33]</c:v>
+                  <c:v>[86.22-86.34]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[86.33-86.47]</c:v>
+                  <c:v>[86.34-86.46]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[86.47-86.6]</c:v>
+                  <c:v>[86.46-86.58]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[86.6-86.73]</c:v>
+                  <c:v>[86.58-86.7]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -943,37 +943,37 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1509,7 +1509,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1525,47 +1525,47 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -1573,15 +1573,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1635,7 +1635,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1643,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1651,7 +1651,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1667,7 +1667,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1729,7 +1729,7 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1737,7 +1737,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1745,7 +1745,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1753,7 +1753,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1761,7 +1761,7 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1769,7 +1769,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1777,7 +1777,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1785,7 +1785,7 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1793,7 +1793,7 @@
         <v>22</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1801,7 +1801,7 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>36</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>37</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>38</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>39</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
